--- a/Theater_Data_with_API.xlsx
+++ b/Theater_Data_with_API.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,121 +477,881 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vijayalakshmi Theatre A/C 4K Dolby, Kanuru</t>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vijaya Lakshmi</t>
+          <t>SCREEN-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02T02:15</t>
+          <t>2024-09-02T06:10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RECLAINER</t>
+          <t>RECLINER</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
         <v>295</v>
       </c>
       <c r="I2" t="n">
-        <v>5605</v>
+        <v>3540</v>
       </c>
       <c r="J2" t="n">
-        <v>5605</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vijayalakshmi Theatre A/C 4K Dolby, Kanuru</t>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vijaya Lakshmi</t>
+          <t>SCREEN-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02T02:15</t>
+          <t>2024-09-02T06:10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BALCONY</t>
+          <t>SILVER</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="G3" t="n">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="H3" t="n">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="I3" t="n">
-        <v>38864</v>
+        <v>29559</v>
       </c>
       <c r="J3" t="n">
-        <v>30128</v>
+        <v>29559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vijayalakshmi Theatre A/C 4K Dolby, Kanuru</t>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vijaya Lakshmi</t>
+          <t>SCREEN-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-02T02:15</t>
+          <t>2024-09-02T12:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FIRST CLASS</t>
+          <t>RECLINER</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>295</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-09-02T12:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>167</v>
+      </c>
+      <c r="G5" t="n">
+        <v>164</v>
+      </c>
+      <c r="H5" t="n">
+        <v>177</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29559</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29028</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-09-02T02:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-09-02T02:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>167</v>
+      </c>
+      <c r="G7" t="n">
+        <v>163</v>
+      </c>
+      <c r="H7" t="n">
+        <v>177</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29559</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28851</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>295</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>167</v>
+      </c>
+      <c r="G9" t="n">
+        <v>167</v>
+      </c>
+      <c r="H9" t="n">
+        <v>177</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29559</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>295</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5900</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>270</v>
+      </c>
+      <c r="G11" t="n">
+        <v>270</v>
+      </c>
+      <c r="H11" t="n">
+        <v>177</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47790</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47790</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>295</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5900</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>270</v>
+      </c>
+      <c r="G13" t="n">
+        <v>269</v>
+      </c>
+      <c r="H13" t="n">
+        <v>177</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47790</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47613</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11</v>
+      </c>
+      <c r="H14" t="n">
+        <v>295</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5900</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>115</v>
+      </c>
+      <c r="F15" t="n">
+        <v>270</v>
+      </c>
+      <c r="G15" t="n">
+        <v>155</v>
+      </c>
+      <c r="H15" t="n">
+        <v>177</v>
+      </c>
+      <c r="I15" t="n">
+        <v>47790</v>
+      </c>
+      <c r="J15" t="n">
+        <v>27435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>295</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>152</v>
+      </c>
+      <c r="F17" t="n">
+        <v>163</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>177</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28851</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>295</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>152</v>
+      </c>
+      <c r="F19" t="n">
+        <v>163</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>177</v>
+      </c>
+      <c r="I19" t="n">
+        <v>28851</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-09-02T15:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>295</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-09-02T15:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>23</v>
+      </c>
+      <c r="F21" t="n">
+        <v>167</v>
+      </c>
+      <c r="G21" t="n">
+        <v>144</v>
+      </c>
+      <c r="H21" t="n">
+        <v>177</v>
+      </c>
+      <c r="I21" t="n">
+        <v>29559</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25488</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-09-02T05:55</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>RECLINER</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>6</v>
       </c>
-      <c r="F4" t="n">
-        <v>120</v>
-      </c>
-      <c r="G4" t="n">
-        <v>114</v>
-      </c>
-      <c r="H4" t="n">
-        <v>90</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10800</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10260</v>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14</v>
+      </c>
+      <c r="H22" t="n">
+        <v>295</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5900</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-09-02T05:55</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>270</v>
+      </c>
+      <c r="G23" t="n">
+        <v>267</v>
+      </c>
+      <c r="H23" t="n">
+        <v>177</v>
+      </c>
+      <c r="I23" t="n">
+        <v>47790</v>
+      </c>
+      <c r="J23" t="n">
+        <v>47259</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +1365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,97 +1418,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vijayalakshmi Theatre A/C 4K Dolby, Kanuru</t>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vijaya Lakshmi</t>
+          <t>SCREEN-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02T02:15</t>
+          <t>2024-09-02T06:10</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>5605</v>
+        <v>3540</v>
       </c>
       <c r="H2" t="n">
-        <v>5605</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vijayalakshmi Theatre A/C 4K Dolby, Kanuru</t>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vijaya Lakshmi</t>
+          <t>SCREEN-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02T02:15</t>
+          <t>2024-09-02T06:10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="F3" t="n">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="G3" t="n">
-        <v>38864</v>
+        <v>29559</v>
       </c>
       <c r="H3" t="n">
-        <v>30128</v>
+        <v>29559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vijayalakshmi Theatre A/C 4K Dolby, Kanuru</t>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vijaya Lakshmi</t>
+          <t>SCREEN-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-02T02:15</t>
+          <t>2024-09-02T12:30</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-09-02T12:30</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>167</v>
+      </c>
+      <c r="F5" t="n">
+        <v>164</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29559</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29028</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-09-02T02:30</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-09-02T02:30</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>167</v>
+      </c>
+      <c r="F7" t="n">
+        <v>163</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29559</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28851</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:10</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>167</v>
+      </c>
+      <c r="F9" t="n">
+        <v>167</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29559</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5900</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>270</v>
+      </c>
+      <c r="F11" t="n">
+        <v>270</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47790</v>
+      </c>
+      <c r="H11" t="n">
+        <v>47790</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5900</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>270</v>
+      </c>
+      <c r="F13" t="n">
+        <v>269</v>
+      </c>
+      <c r="G13" t="n">
+        <v>47790</v>
+      </c>
+      <c r="H13" t="n">
+        <v>47613</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5900</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-09-02T09:30</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>270</v>
+      </c>
+      <c r="F15" t="n">
+        <v>155</v>
+      </c>
+      <c r="G15" t="n">
+        <v>47790</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-09-02T13:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>152</v>
+      </c>
+      <c r="E17" t="n">
+        <v>163</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28851</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:30</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SCREEN-2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-09-02T03:30</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>152</v>
+      </c>
+      <c r="E19" t="n">
+        <v>163</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28851</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-09-02T15:30</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SCREEN-1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-09-02T15:30</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>23</v>
+      </c>
+      <c r="E21" t="n">
+        <v>167</v>
+      </c>
+      <c r="F21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29559</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25488</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-09-02T05:55</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E4" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" t="n">
-        <v>114</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10800</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10260</v>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5900</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mythri Cinemas Phoenix Mall - Barco Flagship Laser Projection, Guntur</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCREEN-5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-09-02T05:55</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>270</v>
+      </c>
+      <c r="F23" t="n">
+        <v>267</v>
+      </c>
+      <c r="G23" t="n">
+        <v>47790</v>
+      </c>
+      <c r="H23" t="n">
+        <v>47259</v>
       </c>
     </row>
   </sheetData>
